--- a/data/trans_orig/P32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B9957A-80D9-49EF-BD89-A70E14244C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7CFDFFC-339B-456E-8FB8-9B1D92399E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CB350BD-6141-4418-BB50-9D47F93856F5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{660AA07F-CB4E-44E0-93EC-AD3E57DEDFD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="510">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,89%</t>
   </si>
   <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>6,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,30 +107,30 @@
     <t>96,11%</t>
   </si>
   <si>
-    <t>92,0%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -140,1441 +140,1435 @@
     <t>5,73%</t>
   </si>
   <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>92,71%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>13,07%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>86,93%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>8,12%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>91,88%</t>
+    <t>90,84%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>95,94%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>94,0%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79955073-489C-4B9B-993F-72CD2E987CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450908F5-3E64-4A2E-AB03-F29C790BF8F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2888,10 +2882,10 @@
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2900,13 +2894,13 @@
         <v>1977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2915,13 +2909,13 @@
         <v>6647</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2930,13 @@
         <v>189614</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -2951,10 +2945,10 @@
         <v>109806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2966,13 +2960,13 @@
         <v>299420</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,7 +3022,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3040,13 +3034,13 @@
         <v>5273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3061,7 +3055,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3070,13 +3064,13 @@
         <v>5273</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,10 +3085,10 @@
         <v>284760</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>95</v>
@@ -3109,7 +3103,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -3121,13 +3115,13 @@
         <v>417141</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3195,13 +3189,13 @@
         <v>8012</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3210,13 +3204,13 @@
         <v>1955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3225,13 +3219,13 @@
         <v>9967</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3240,13 @@
         <v>484876</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -3261,10 +3255,10 @@
         <v>237983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -3276,13 +3270,13 @@
         <v>722859</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3344,13 @@
         <v>51489</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3365,13 +3359,13 @@
         <v>13239</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -3380,13 +3374,13 @@
         <v>64728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3395,13 @@
         <v>1829415</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>862</v>
@@ -3416,13 +3410,13 @@
         <v>881343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>2658</v>
@@ -3431,13 +3425,13 @@
         <v>2710758</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,7 +3487,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3517,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666EC407-1903-4F67-801F-117F0EAF30CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CF4B64-4413-4ABE-8077-6827A8158EA0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3534,7 +3528,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3639,39 +3633,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,39 +3678,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,39 +3723,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3772,13 @@
         <v>26960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3796,10 +3790,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3808,13 +3802,13 @@
         <v>30919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3823,13 @@
         <v>283160</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -3847,10 +3841,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>402</v>
@@ -3859,13 +3853,13 @@
         <v>430563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3927,13 @@
         <v>3866</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3948,13 +3942,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3963,13 +3957,13 @@
         <v>4851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3978,13 @@
         <v>198607</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -3999,10 +3993,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4014,13 +4008,13 @@
         <v>322271</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4082,13 @@
         <v>50599</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4103,13 +4097,13 @@
         <v>8525</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4118,7 +4112,7 @@
         <v>59124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>195</v>
@@ -4160,7 +4154,7 @@
         <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -4169,13 +4163,13 @@
         <v>502365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4237,13 @@
         <v>11189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4258,13 +4252,13 @@
         <v>888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4273,7 +4267,7 @@
         <v>12076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>210</v>
@@ -4300,7 +4294,7 @@
         <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4309,10 +4303,10 @@
         <v>53221</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4324,13 +4318,13 @@
         <v>170241</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +4395,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4413,13 +4407,13 @@
         <v>951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4428,13 +4422,13 @@
         <v>7345</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4446,10 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -4464,10 +4458,10 @@
         <v>93255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4479,13 +4473,13 @@
         <v>271108</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,7 +4535,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4553,13 +4547,13 @@
         <v>19576</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4568,13 +4562,13 @@
         <v>3118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4583,13 +4577,13 @@
         <v>22694</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4598,13 @@
         <v>377893</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>192</v>
@@ -4619,13 +4613,13 @@
         <v>211407</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>549</v>
@@ -4634,13 +4628,13 @@
         <v>589301</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4690,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4708,13 +4702,13 @@
         <v>19060</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4723,13 +4717,13 @@
         <v>4280</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4738,13 +4732,13 @@
         <v>23340</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4753,13 @@
         <v>433549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4774,13 +4768,13 @@
         <v>211681</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M26" s="7">
         <v>592</v>
@@ -4789,13 +4783,13 @@
         <v>645230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4857,13 @@
         <v>137642</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4878,13 +4872,13 @@
         <v>22706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -4893,13 +4887,13 @@
         <v>160348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4908,13 @@
         <v>1902977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H29" s="7">
         <v>945</v>
@@ -4929,13 +4923,13 @@
         <v>1028102</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="M29" s="7">
         <v>2737</v>
@@ -4944,13 +4938,13 @@
         <v>2931080</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,7 +5000,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5030,7 +5024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DECB236-AB3D-4853-A2CB-00BF757F5740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85D96F0-D7E7-4CE3-B292-61272DD94711}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5047,7 +5041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5154,13 +5148,13 @@
         <v>27928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5169,13 +5163,13 @@
         <v>8357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5184,13 +5178,13 @@
         <v>36285</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5199,13 @@
         <v>150744</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5220,13 +5214,13 @@
         <v>95762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M5" s="7">
         <v>235</v>
@@ -5309,13 +5303,13 @@
         <v>3494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5345,7 +5339,7 @@
         <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,10 +5354,10 @@
         <v>264244</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>304</v>
@@ -5393,7 +5387,7 @@
         <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>308</v>
@@ -5467,10 +5461,10 @@
         <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5479,13 +5473,13 @@
         <v>845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5518,10 +5512,10 @@
         <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -5530,10 +5524,10 @@
         <v>121633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5622,10 +5616,10 @@
         <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5634,13 +5628,13 @@
         <v>2536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5649,13 +5643,13 @@
         <v>12315</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5664,13 @@
         <v>223630</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -5685,10 +5679,10 @@
         <v>148481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5700,13 +5694,13 @@
         <v>372111</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5768,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5795,7 +5789,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5804,13 +5798,13 @@
         <v>2857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5819,13 @@
         <v>87432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5843,7 +5837,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5855,13 +5849,13 @@
         <v>124907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5923,13 @@
         <v>4784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5944,13 +5938,13 @@
         <v>1887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5959,13 +5953,13 @@
         <v>6670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5974,13 @@
         <v>184269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -5995,10 +5989,10 @@
         <v>102841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6010,13 +6004,13 @@
         <v>287111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,7 +6066,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6084,13 +6078,13 @@
         <v>37628</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -6099,13 +6093,13 @@
         <v>18398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -6114,13 +6108,13 @@
         <v>56027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6129,13 @@
         <v>342844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -6150,13 +6144,13 @@
         <v>240566</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>523</v>
@@ -6165,13 +6159,13 @@
         <v>583409</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,7 +6221,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6239,13 +6233,13 @@
         <v>14089</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>33</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6257,10 +6251,10 @@
         <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6269,13 +6263,13 @@
         <v>18258</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6284,13 @@
         <v>442337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>240</v>
@@ -6305,13 +6299,13 @@
         <v>261099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>660</v>
@@ -6320,7 +6314,7 @@
         <v>703435</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>385</v>
@@ -6397,10 +6391,10 @@
         <v>387</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6409,13 +6403,13 @@
         <v>37300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>389</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>390</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>391</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -6430,7 +6424,7 @@
         <v>392</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6439,13 @@
         <v>1895066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="H29" s="7">
         <v>1059</v>
@@ -6460,10 +6454,10 @@
         <v>1109007</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>396</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>396</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>397</v>
@@ -6475,13 +6469,13 @@
         <v>3004073</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,7 +6531,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8ADB3-B664-4822-9930-1915D2C7CD12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9591F54-2D9C-4111-B445-D727F33E27B3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6578,7 +6572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6685,13 +6679,13 @@
         <v>6841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6706,7 +6700,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6715,13 +6709,13 @@
         <v>6841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6730,13 @@
         <v>147639</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7">
         <v>163</v>
@@ -6754,7 +6748,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6766,13 +6760,13 @@
         <v>232596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6834,13 @@
         <v>4153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6855,13 +6849,13 @@
         <v>607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6870,13 +6864,13 @@
         <v>4760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6885,13 @@
         <v>247792</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -6906,10 +6900,10 @@
         <v>123937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6921,13 +6915,13 @@
         <v>371729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +6989,13 @@
         <v>19088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -7010,13 +7004,13 @@
         <v>2407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -7025,13 +7019,13 @@
         <v>21495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7040,13 @@
         <v>169854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
@@ -7061,13 +7055,13 @@
         <v>93391</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>431</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>309</v>
@@ -7076,13 +7070,13 @@
         <v>263245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7144,13 @@
         <v>8825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7165,13 +7159,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -7180,13 +7174,13 @@
         <v>9788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7195,13 @@
         <v>173486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -7216,10 +7210,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7231,13 +7225,13 @@
         <v>306687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,7 +7305,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7320,13 +7314,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7335,13 +7329,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,7 +7353,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7371,10 +7365,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7386,10 +7380,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7460,13 +7454,13 @@
         <v>10076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7475,13 +7469,13 @@
         <v>2559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -7490,13 +7484,13 @@
         <v>12636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7505,13 @@
         <v>159348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -7526,13 +7520,13 @@
         <v>100777</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
@@ -7541,13 +7535,13 @@
         <v>260123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,7 +7597,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7615,13 +7609,13 @@
         <v>42295</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -7630,13 +7624,13 @@
         <v>16177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>476</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -7645,13 +7639,13 @@
         <v>58472</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7660,13 @@
         <v>266634</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H23" s="7">
         <v>269</v>
@@ -7681,13 +7675,13 @@
         <v>305008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>479</v>
+        <v>316</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>482</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M23" s="7">
         <v>521</v>
@@ -7696,13 +7690,13 @@
         <v>571642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,7 +7752,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7770,13 +7764,13 @@
         <v>7492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7785,13 +7779,13 @@
         <v>4036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -7800,13 +7794,13 @@
         <v>11528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7815,13 @@
         <v>319655</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H26" s="7">
         <v>133</v>
@@ -7836,13 +7830,13 @@
         <v>118274</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>429</v>
@@ -7851,13 +7845,13 @@
         <v>437930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7919,13 @@
         <v>98770</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -7940,10 +7934,10 @@
         <v>27231</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>501</v>
@@ -7958,10 +7952,10 @@
         <v>502</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,16 +7967,16 @@
         <v>1487</v>
       </c>
       <c r="D29" s="7">
-        <v>1518938</v>
+        <v>1518937</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>1170</v>
@@ -7997,7 +7991,7 @@
         <v>507</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>508</v>
+        <v>411</v>
       </c>
       <c r="M29" s="7">
         <v>2657</v>
@@ -8006,13 +8000,13 @@
         <v>2487797</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>511</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,7 +8018,7 @@
         <v>1587</v>
       </c>
       <c r="D30" s="7">
-        <v>1617708</v>
+        <v>1617707</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8068,7 +8062,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7CFDFFC-339B-456E-8FB8-9B1D92399E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB26EB-C42E-4AAE-A3E9-7A9E9F63986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{660AA07F-CB4E-44E0-93EC-AD3E57DEDFD6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4610B238-6F61-49FA-AEC9-D0A668F4BE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="536">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>3,89%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,09%</t>
+    <t>9,57%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>96,11%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>90,91%</t>
+    <t>90,43%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>96,53%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,49 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>6,73%</t>
+    <t>7,48%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>93,27%</t>
+    <t>92,52%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -191,7 +191,7 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0%</t>
@@ -203,1354 +203,1432 @@
     <t>0,35%</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>93,89%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
   </si>
   <si>
     <t>92,49%</t>
@@ -1980,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450908F5-3E64-4A2E-AB03-F29C790BF8F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EE7B64-C9A5-427C-89AC-9B0EF07466A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2572,10 +2650,10 @@
         <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2584,13 +2662,13 @@
         <v>4741</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2599,13 +2677,13 @@
         <v>15857</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2698,13 @@
         <v>226780</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2635,13 +2713,13 @@
         <v>126185</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -2650,13 +2728,13 @@
         <v>352965</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2790,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,13 +2802,13 @@
         <v>2612</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2739,13 +2817,13 @@
         <v>1658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2754,13 +2832,13 @@
         <v>4270</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2853,13 @@
         <v>94286</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -2790,10 +2868,10 @@
         <v>44699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2805,13 +2883,13 @@
         <v>138985</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2945,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2957,13 @@
         <v>4670</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2894,13 +2972,13 @@
         <v>1977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2909,13 +2987,13 @@
         <v>6647</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +3008,13 @@
         <v>189614</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -3037,10 +3115,10 @@
         <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3055,7 +3133,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3064,13 +3142,13 @@
         <v>5273</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3163,13 @@
         <v>284760</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -3103,7 +3181,7 @@
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -3115,13 +3193,13 @@
         <v>417141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3255,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3189,13 +3267,13 @@
         <v>8012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3204,13 +3282,13 @@
         <v>1955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3219,13 +3297,13 @@
         <v>9967</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3318,13 @@
         <v>484876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>227</v>
@@ -3255,10 +3333,10 @@
         <v>237983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -3270,13 +3348,13 @@
         <v>722859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3422,13 @@
         <v>51489</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3359,13 +3437,13 @@
         <v>13239</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -3374,13 +3452,13 @@
         <v>64728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,10 +3473,10 @@
         <v>1829415</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>150</v>
@@ -3413,7 +3491,7 @@
         <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>152</v>
@@ -3511,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CF4B64-4413-4ABE-8077-6827A8158EA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F79677-98E8-41B9-AA7F-F7AEF3914733}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3930,10 +4008,10 @@
         <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3942,13 +4020,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3957,13 +4035,13 @@
         <v>4851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +4056,13 @@
         <v>198607</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -3993,10 +4071,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4011,10 +4089,10 @@
         <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4160,13 @@
         <v>50599</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4097,13 +4175,13 @@
         <v>8525</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4112,13 +4190,13 @@
         <v>59124</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4211,13 @@
         <v>314894</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -4148,13 +4226,13 @@
         <v>187471</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -4163,13 +4241,13 @@
         <v>502365</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4303,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4237,13 +4315,13 @@
         <v>11189</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4252,13 +4330,13 @@
         <v>888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4267,7 +4345,7 @@
         <v>12076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>210</v>
@@ -4294,7 +4372,7 @@
         <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4303,10 +4381,10 @@
         <v>53221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4318,13 +4396,13 @@
         <v>170241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,7 +4458,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4395,10 +4473,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4407,13 +4485,13 @@
         <v>951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4422,13 +4500,13 @@
         <v>7345</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,10 +4524,10 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -4458,10 +4536,10 @@
         <v>93255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4473,13 +4551,13 @@
         <v>271108</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4625,13 @@
         <v>19576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4562,13 +4640,13 @@
         <v>3118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4577,13 +4655,13 @@
         <v>22694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4676,13 @@
         <v>377893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>192</v>
@@ -4613,10 +4691,10 @@
         <v>211407</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>244</v>
@@ -4690,7 +4768,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4735,10 +4813,10 @@
         <v>254</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4831,13 @@
         <v>433549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4768,13 +4846,13 @@
         <v>211681</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>592</v>
@@ -4783,13 +4861,13 @@
         <v>645230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4935,13 @@
         <v>137642</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4872,13 +4950,13 @@
         <v>22706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -4887,13 +4965,13 @@
         <v>160348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4986,13 @@
         <v>1902977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>945</v>
@@ -4923,13 +5001,13 @@
         <v>1028102</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
         <v>2737</v>
@@ -4938,10 +5016,10 @@
         <v>2931080</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>173</v>
@@ -5024,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85D96F0-D7E7-4CE3-B292-61272DD94711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA68598C-EE19-43F6-AD77-85ACBB6B112D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5041,7 +5119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5148,13 +5226,13 @@
         <v>27928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5163,13 +5241,13 @@
         <v>8357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5178,13 +5256,13 @@
         <v>36285</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5277,13 @@
         <v>150744</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5214,13 +5292,13 @@
         <v>95762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>235</v>
@@ -5229,13 +5307,13 @@
         <v>246507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5381,13 @@
         <v>3494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5318,13 +5396,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5333,13 +5411,13 @@
         <v>4603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5432,13 @@
         <v>264244</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5369,10 +5447,10 @@
         <v>101150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5384,13 +5462,13 @@
         <v>365394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5536,13 @@
         <v>4611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5473,13 +5551,13 @@
         <v>845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5488,13 +5566,13 @@
         <v>5456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5587,13 @@
         <v>199566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -5524,10 +5602,10 @@
         <v>121633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5539,13 +5617,13 @@
         <v>321199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5691,13 @@
         <v>9779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5628,13 +5706,13 @@
         <v>2536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5643,13 +5721,13 @@
         <v>12315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5742,13 @@
         <v>223630</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -5679,10 +5757,10 @@
         <v>148481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5694,13 +5772,13 @@
         <v>372111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5834,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5768,13 +5846,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5789,7 +5867,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5798,13 +5876,13 @@
         <v>2857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5897,13 @@
         <v>87432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5837,7 +5915,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5849,13 +5927,13 @@
         <v>124907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,7 +5989,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5923,13 +6001,13 @@
         <v>4784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5938,13 +6016,13 @@
         <v>1887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5953,13 +6031,13 @@
         <v>6670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +6052,13 @@
         <v>184269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -5989,10 +6067,10 @@
         <v>102841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>59</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6004,13 +6082,13 @@
         <v>287111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6156,13 @@
         <v>37628</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -6093,13 +6171,13 @@
         <v>18398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -6108,13 +6186,13 @@
         <v>56027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6207,13 @@
         <v>342844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -6144,13 +6222,13 @@
         <v>240566</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>523</v>
@@ -6159,13 +6237,13 @@
         <v>583409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,7 +6299,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6233,13 +6311,13 @@
         <v>14089</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>99</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6248,13 +6326,13 @@
         <v>4169</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6263,13 +6341,13 @@
         <v>18258</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6362,13 @@
         <v>442337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>240</v>
@@ -6299,13 +6377,13 @@
         <v>261099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>660</v>
@@ -6314,13 +6392,13 @@
         <v>703435</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>367</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,13 +6466,13 @@
         <v>105170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>67</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6403,13 +6481,13 @@
         <v>37300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -6418,13 +6496,13 @@
         <v>142471</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +6517,13 @@
         <v>1895066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="H29" s="7">
         <v>1059</v>
@@ -6454,13 +6532,13 @@
         <v>1109007</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="M29" s="7">
         <v>2857</v>
@@ -6469,13 +6547,13 @@
         <v>3004073</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,7 +6633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9591F54-2D9C-4111-B445-D727F33E27B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A6FA6-0B0F-4AC3-817E-579098A7702F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6572,7 +6650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6679,13 +6757,13 @@
         <v>6841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6700,7 +6778,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6709,13 +6787,13 @@
         <v>6841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6808,13 @@
         <v>147639</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>409</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>163</v>
@@ -6748,7 +6826,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6760,13 +6838,13 @@
         <v>232596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6912,13 @@
         <v>4153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6849,13 +6927,13 @@
         <v>607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>442</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>443</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6864,13 +6942,13 @@
         <v>4760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>418</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6963,13 @@
         <v>247792</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -6900,10 +6978,10 @@
         <v>123937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>448</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>449</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6915,13 +6993,13 @@
         <v>371729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +7067,13 @@
         <v>19088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -7004,13 +7082,13 @@
         <v>2407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>454</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -7019,13 +7097,13 @@
         <v>21495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7118,13 @@
         <v>169854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
@@ -7055,10 +7133,10 @@
         <v>93391</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>459</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>170</v>
@@ -7070,13 +7148,13 @@
         <v>263245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7222,13 @@
         <v>8825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7159,13 +7237,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -7174,13 +7252,13 @@
         <v>9788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,10 +7273,10 @@
         <v>173486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>57</v>
@@ -7210,10 +7288,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7225,13 +7303,13 @@
         <v>306687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,7 +7365,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7305,7 +7383,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7314,13 +7392,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7329,13 +7407,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,7 +7431,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7365,10 +7443,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7380,10 +7458,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7442,7 +7520,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7454,13 +7532,13 @@
         <v>10076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7469,13 +7547,13 @@
         <v>2559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -7484,13 +7562,13 @@
         <v>12636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>454</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,13 +7583,13 @@
         <v>159348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -7520,13 +7598,13 @@
         <v>100777</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
@@ -7535,13 +7613,13 @@
         <v>260123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7687,13 @@
         <v>42295</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -7624,13 +7702,13 @@
         <v>16177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -7639,13 +7717,13 @@
         <v>58472</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>311</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7738,13 @@
         <v>266634</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
         <v>269</v>
@@ -7675,13 +7753,13 @@
         <v>305008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>316</v>
+        <v>506</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>483</v>
+        <v>408</v>
       </c>
       <c r="M23" s="7">
         <v>521</v>
@@ -7690,13 +7768,13 @@
         <v>571642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>316</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,7 +7830,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7764,13 +7842,13 @@
         <v>7492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7779,13 +7857,13 @@
         <v>4036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>489</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>513</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -7794,13 +7872,13 @@
         <v>11528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,13 +7893,13 @@
         <v>319655</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>133</v>
@@ -7830,13 +7908,13 @@
         <v>118274</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>495</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>520</v>
       </c>
       <c r="M26" s="7">
         <v>429</v>
@@ -7845,13 +7923,13 @@
         <v>437930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7997,13 @@
         <v>98770</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>270</v>
+        <v>522</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -7934,13 +8012,13 @@
         <v>27231</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="M28" s="7">
         <v>134</v>
@@ -7949,13 +8027,13 @@
         <v>126001</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,13 +8048,13 @@
         <v>1518937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>277</v>
+        <v>529</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="H29" s="7">
         <v>1170</v>
@@ -7985,13 +8063,13 @@
         <v>968860</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>2657</v>
@@ -8000,10 +8078,10 @@
         <v>2487797</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB26EB-C42E-4AAE-A3E9-7A9E9F63986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D52B15-CC8C-469C-9C9D-3709A32687E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4610B238-6F61-49FA-AEC9-D0A668F4BE4E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD3AEF78-79F8-45D6-B8C5-E58B79E53005}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="512">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,57%</t>
+    <t>9,34%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>96,11%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>90,43%</t>
+    <t>90,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>96,53%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,49 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>7,48%</t>
+    <t>8,03%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>92,52%</t>
+    <t>91,97%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -191,7 +191,7 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>3,05%</t>
   </si>
   <si>
     <t>0%</t>
@@ -203,13 +203,13 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>96,95%</t>
   </si>
   <si>
     <t>97,85%</t>
@@ -218,7 +218,7 @@
     <t>99,65%</t>
   </si>
   <si>
-    <t>97,94%</t>
+    <t>97,98%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -227,49 +227,55 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>8,36%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>91,64%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>96,38%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -278,16 +284,16 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>17,15%</t>
+    <t>17,4%</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -296,28 +302,28 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>7,17%</t>
+    <t>7,4%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>82,85%</t>
+    <t>82,6%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>92,83%</t>
+    <t>92,6%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -329,49 +335,49 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>5,34%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>93,22%</t>
+    <t>94,66%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -380,10 +386,7 @@
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -392,19 +395,16 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>95,53%</t>
   </si>
   <si>
     <t>98,55%</t>
@@ -413,10 +413,10 @@
     <t>98,75%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -425,16 +425,16 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -443,28 +443,28 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,65%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>96,75%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>97,35%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -476,34 +476,46 @@
     <t>2,08%</t>
   </si>
   <si>
+    <t>3,61%</t>
+  </si>
+  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
+    <t>96,39%</t>
+  </si>
+  <si>
     <t>97,92%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -518,1135 +530,1051 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
     <t>97,44%</t>
   </si>
   <si>
+    <t>95,15%</t>
+  </si>
+  <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>4,06%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>6,0%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>95,94%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>94,0%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EE7B64-C9A5-427C-89AC-9B0EF07466A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7CCBF5-010F-41F9-B139-79028358127F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2650,10 +2578,10 @@
         <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2662,13 +2590,13 @@
         <v>4741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2677,13 +2605,13 @@
         <v>15857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2626,13 @@
         <v>226780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2713,13 +2641,13 @@
         <v>126185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -2728,13 +2656,13 @@
         <v>352965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +2718,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2802,13 +2730,13 @@
         <v>2612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2817,13 +2745,13 @@
         <v>1658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2832,13 +2760,13 @@
         <v>4270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2781,13 @@
         <v>94286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -2868,10 +2796,10 @@
         <v>44699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2883,13 +2811,13 @@
         <v>138985</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2873,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2957,13 +2885,13 @@
         <v>4670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2972,13 +2900,13 @@
         <v>1977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2987,13 +2915,13 @@
         <v>6647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +2936,13 @@
         <v>189614</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -3023,10 +2951,10 @@
         <v>109806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -3038,13 +2966,13 @@
         <v>299420</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3028,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3040,13 @@
         <v>5273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3133,7 +3061,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3142,13 +3070,13 @@
         <v>5273</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3091,13 @@
         <v>284760</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -3428,7 +3356,7 @@
         <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -3437,13 +3365,13 @@
         <v>13239</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -3452,13 +3380,13 @@
         <v>64728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3401,13 @@
         <v>1829415</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>862</v>
@@ -3488,13 +3416,13 @@
         <v>881343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>2658</v>
@@ -3503,13 +3431,13 @@
         <v>2710758</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3493,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F79677-98E8-41B9-AA7F-F7AEF3914733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EF35EC-DCAA-4519-9D20-5DDC110794B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3711,39 +3639,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,39 +3684,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,39 +3729,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3778,13 @@
         <v>26960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3868,10 +3796,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3880,13 +3808,13 @@
         <v>30919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3829,13 @@
         <v>283160</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -3919,10 +3847,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>402</v>
@@ -3931,13 +3859,13 @@
         <v>430563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3933,13 @@
         <v>3866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4020,13 +3948,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4035,13 +3963,13 @@
         <v>4851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +3984,13 @@
         <v>198607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -4071,10 +3999,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4086,13 +4014,13 @@
         <v>322271</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4088,13 @@
         <v>50599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4175,13 +4103,13 @@
         <v>8525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4190,13 +4118,13 @@
         <v>59124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4139,13 @@
         <v>314894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -4226,13 +4154,13 @@
         <v>187471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -4241,7 +4169,7 @@
         <v>502365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>202</v>
@@ -4303,7 +4231,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4458,7 +4386,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4613,7 +4541,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4640,13 +4568,13 @@
         <v>3118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4655,13 +4583,13 @@
         <v>22694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4604,13 @@
         <v>377893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>192</v>
@@ -4694,10 +4622,10 @@
         <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>549</v>
@@ -4706,13 +4634,13 @@
         <v>589301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4708,13 @@
         <v>19060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4795,13 +4723,13 @@
         <v>4280</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4810,13 +4738,13 @@
         <v>23340</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4759,13 @@
         <v>433549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4846,13 +4774,13 @@
         <v>211681</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>592</v>
@@ -4861,13 +4789,13 @@
         <v>645230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4863,13 @@
         <v>137642</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4950,10 +4878,10 @@
         <v>22706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>271</v>
@@ -4968,10 +4896,10 @@
         <v>272</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4914,7 @@
         <v>1902977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>275</v>
@@ -5007,7 +4935,7 @@
         <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>2737</v>
@@ -5016,13 +4944,13 @@
         <v>2931080</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5006,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +5030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA68598C-EE19-43F6-AD77-85ACBB6B112D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3422F-B754-494E-8B4A-7C5FE6C1753B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5241,13 +5169,13 @@
         <v>8357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5256,13 +5184,13 @@
         <v>36285</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5205,13 @@
         <v>150744</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5292,13 +5220,13 @@
         <v>95762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c r="M5" s="7">
         <v>235</v>
@@ -5307,13 +5235,13 @@
         <v>246507</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5309,13 @@
         <v>3494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5396,13 +5324,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5411,13 +5339,13 @@
         <v>4603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5360,13 @@
         <v>264244</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5447,10 +5375,10 @@
         <v>101150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5462,13 +5390,13 @@
         <v>365394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5464,13 @@
         <v>4611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5551,13 +5479,13 @@
         <v>845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5566,13 +5494,13 @@
         <v>5456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5515,13 @@
         <v>199566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -5602,10 +5530,10 @@
         <v>121633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5617,13 +5545,13 @@
         <v>321199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5619,13 @@
         <v>9779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5706,13 +5634,13 @@
         <v>2536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5721,13 +5649,13 @@
         <v>12315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5670,13 @@
         <v>223630</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -5757,10 +5685,10 @@
         <v>148481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5772,13 +5700,13 @@
         <v>372111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5762,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5846,13 +5774,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5867,7 +5795,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5876,13 +5804,13 @@
         <v>2857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5825,13 @@
         <v>87432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5915,7 +5843,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5927,13 +5855,13 @@
         <v>124907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,7 +5917,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6001,13 +5929,13 @@
         <v>4784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6016,13 +5944,13 @@
         <v>1887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -6031,13 +5959,13 @@
         <v>6670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +5980,13 @@
         <v>184269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6067,10 +5995,10 @@
         <v>102841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6082,13 +6010,13 @@
         <v>287111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,7 +6072,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6156,13 +6084,13 @@
         <v>37628</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -6171,13 +6099,13 @@
         <v>18398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -6186,13 +6114,13 @@
         <v>56027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,13 +6135,13 @@
         <v>342844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -6222,13 +6150,13 @@
         <v>240566</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>523</v>
@@ -6237,13 +6165,13 @@
         <v>583409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,13 +6239,13 @@
         <v>14089</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6326,13 +6254,13 @@
         <v>4169</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6341,13 +6269,13 @@
         <v>18258</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6290,13 @@
         <v>442337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="H26" s="7">
         <v>240</v>
@@ -6377,13 +6305,13 @@
         <v>261099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>660</v>
@@ -6392,13 +6320,13 @@
         <v>703435</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,13 +6394,13 @@
         <v>105170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6481,13 +6409,13 @@
         <v>37300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -6496,13 +6424,13 @@
         <v>142471</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>417</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6445,13 @@
         <v>1895066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="H29" s="7">
         <v>1059</v>
@@ -6532,13 +6460,13 @@
         <v>1109007</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>421</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>2857</v>
@@ -6547,13 +6475,13 @@
         <v>3004073</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>425</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,7 +6537,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6633,7 +6561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A6FA6-0B0F-4AC3-817E-579098A7702F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D49A19-E1EC-4816-92C2-B1A3E2A02C85}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6650,7 +6578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6757,13 +6685,13 @@
         <v>6841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6778,7 +6706,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6787,13 +6715,13 @@
         <v>6841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6736,13 @@
         <v>147639</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>163</v>
@@ -6826,7 +6754,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6838,13 +6766,13 @@
         <v>232596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>439</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6840,13 @@
         <v>4153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6927,13 +6855,13 @@
         <v>607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6942,13 +6870,13 @@
         <v>4760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6891,13 @@
         <v>247792</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -6978,10 +6906,10 @@
         <v>123937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>448</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>449</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6993,13 +6921,13 @@
         <v>371729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +6995,13 @@
         <v>19088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -7082,13 +7010,13 @@
         <v>2407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -7097,13 +7025,13 @@
         <v>21495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7046,13 @@
         <v>169854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
@@ -7133,13 +7061,13 @@
         <v>93391</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>309</v>
@@ -7148,13 +7076,13 @@
         <v>263245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7150,13 @@
         <v>8825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7237,13 +7165,13 @@
         <v>963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>464</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -7252,13 +7180,13 @@
         <v>9788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7201,13 @@
         <v>173486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>467</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -7288,10 +7216,10 @@
         <v>133201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>469</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7303,13 +7231,13 @@
         <v>306687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7293,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7383,7 +7311,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7392,13 +7320,13 @@
         <v>481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7407,13 +7335,13 @@
         <v>481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,7 +7359,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7443,10 +7371,10 @@
         <v>9315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7458,10 +7386,10 @@
         <v>43845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7520,7 +7448,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7532,13 +7460,13 @@
         <v>10076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7547,13 +7475,13 @@
         <v>2559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -7562,13 +7490,13 @@
         <v>12636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>454</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,13 +7511,13 @@
         <v>159348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -7598,13 +7526,13 @@
         <v>100777</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
@@ -7613,13 +7541,13 @@
         <v>260123</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>494</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,7 +7603,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7687,13 +7615,13 @@
         <v>42295</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -7702,13 +7630,13 @@
         <v>16177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -7717,13 +7645,13 @@
         <v>58472</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7666,13 @@
         <v>266634</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="H23" s="7">
         <v>269</v>
@@ -7753,13 +7681,13 @@
         <v>305008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="M23" s="7">
         <v>521</v>
@@ -7768,13 +7696,13 @@
         <v>571642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7770,13 @@
         <v>7492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7857,13 +7785,13 @@
         <v>4036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>487</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>513</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -7872,13 +7800,13 @@
         <v>11528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7821,13 @@
         <v>319655</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="H26" s="7">
         <v>133</v>
@@ -7908,13 +7836,13 @@
         <v>118274</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>327</v>
+        <v>494</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>429</v>
@@ -7923,13 +7851,13 @@
         <v>437930</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +7925,13 @@
         <v>98770</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>523</v>
+        <v>234</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>524</v>
+        <v>425</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -8012,13 +7940,13 @@
         <v>27231</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="M28" s="7">
         <v>134</v>
@@ -8027,13 +7955,13 @@
         <v>126001</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,16 +7973,16 @@
         <v>1487</v>
       </c>
       <c r="D29" s="7">
-        <v>1518937</v>
+        <v>1518938</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>531</v>
+        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>1170</v>
@@ -8063,13 +7991,13 @@
         <v>968860</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="M29" s="7">
         <v>2657</v>
@@ -8078,13 +8006,13 @@
         <v>2487797</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>21</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,7 +8024,7 @@
         <v>1587</v>
       </c>
       <c r="D30" s="7">
-        <v>1617707</v>
+        <v>1617708</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8140,7 +8068,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D52B15-CC8C-469C-9C9D-3709A32687E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C528BA98-7962-45CD-AD5A-055E52713431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD3AEF78-79F8-45D6-B8C5-E58B79E53005}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{742C5C96-5B94-4E3F-904D-DAACDF61D6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="523">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -524,7 +524,58 @@
     <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>8,69%</t>
@@ -611,46 +662,52 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>8,73%</t>
@@ -755,9 +812,6 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
     <t>3,71%</t>
   </si>
   <si>
@@ -776,9 +830,6 @@
     <t>97,05%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
     <t>99,54%</t>
   </si>
   <si>
@@ -1013,9 +1064,6 @@
     <t>7,66%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
     <t>5,79%</t>
   </si>
   <si>
@@ -1037,9 +1085,6 @@
     <t>98,03%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
     <t>94,21%</t>
   </si>
   <si>
@@ -1067,9 +1112,6 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
     <t>96,84%</t>
   </si>
   <si>
@@ -1085,9 +1127,6 @@
     <t>97,76%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
     <t>2,53%</t>
   </si>
   <si>
@@ -1241,340 +1280,334 @@
     <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
   </si>
   <si>
-    <t>9,56%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7CCBF5-010F-41F9-B139-79028358127F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5117A39B-1655-4C98-84F1-77427A42E4AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3413,7 +3446,7 @@
         <v>862</v>
       </c>
       <c r="I29" s="7">
-        <v>881343</v>
+        <v>881342</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>154</v>
@@ -3464,7 +3497,7 @@
         <v>874</v>
       </c>
       <c r="I30" s="7">
-        <v>894582</v>
+        <v>894581</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3517,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EF35EC-DCAA-4519-9D20-5DDC110794B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8F24FB-2EF3-4C2F-9F81-177C28D7518C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,43 +3668,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>42655</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6686</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="N4" s="7">
+        <v>49340</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,43 +3719,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="D5" s="7">
+        <v>132670</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="I5" s="7">
+        <v>101968</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="N5" s="7">
+        <v>234638</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,43 +3770,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D6" s="7">
+        <v>175325</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="I6" s="7">
+        <v>108654</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="N6" s="7">
+        <v>283978</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3829,13 @@
         <v>26960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3796,10 +3847,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3808,13 +3859,13 @@
         <v>30919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3880,13 @@
         <v>283160</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -3847,10 +3898,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>402</v>
@@ -3859,10 +3910,10 @@
         <v>430563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>45</v>
@@ -3933,13 +3984,13 @@
         <v>3866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3948,13 +3999,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3966,10 +4017,10 @@
         <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4035,13 @@
         <v>198607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -3999,10 +4050,10 @@
         <v>123663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4017,10 +4068,10 @@
         <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,49 +4133,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>50599</v>
+        <v>7944</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>8525</v>
+        <v>1839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>59124</v>
+        <v>9783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +4184,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="D14" s="7">
-        <v>314894</v>
+        <v>182224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>187471</v>
+        <v>85503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>464</v>
+        <v>246</v>
       </c>
       <c r="N14" s="7">
-        <v>502365</v>
+        <v>267727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +4235,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="D15" s="7">
-        <v>365493</v>
+        <v>190168</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4199,10 +4250,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>195996</v>
+        <v>87342</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4214,10 +4265,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>517</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>561489</v>
+        <v>277510</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4243,13 +4294,13 @@
         <v>11189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4258,13 +4309,13 @@
         <v>888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4273,13 +4324,13 @@
         <v>12076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4345,13 @@
         <v>117019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4309,10 +4360,10 @@
         <v>53221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -4324,13 +4375,13 @@
         <v>170241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +4452,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4413,13 +4464,13 @@
         <v>951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4428,13 +4479,13 @@
         <v>7345</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4503,10 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -4464,10 +4515,10 @@
         <v>93255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4479,13 +4530,13 @@
         <v>271108</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4604,13 @@
         <v>19576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -4571,10 +4622,10 @@
         <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -4583,13 +4634,13 @@
         <v>22694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4655,13 @@
         <v>377893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>192</v>
@@ -4622,10 +4673,10 @@
         <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>549</v>
@@ -4634,13 +4685,13 @@
         <v>589301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4759,13 @@
         <v>19060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4723,13 +4774,13 @@
         <v>4280</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4738,13 +4789,13 @@
         <v>23340</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4810,13 @@
         <v>433549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -4774,28 +4825,28 @@
         <v>211681</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>592</v>
       </c>
       <c r="N26" s="7">
-        <v>645230</v>
+        <v>645231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,7 +4888,7 @@
         <v>612</v>
       </c>
       <c r="N27" s="7">
-        <v>668570</v>
+        <v>668571</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4866,10 +4917,10 @@
         <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -4878,13 +4929,13 @@
         <v>22706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -4893,13 +4944,13 @@
         <v>160348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,10 +4968,10 @@
         <v>77</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H29" s="7">
         <v>945</v>
@@ -4929,28 +4980,28 @@
         <v>1028102</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M29" s="7">
         <v>2737</v>
       </c>
       <c r="N29" s="7">
-        <v>2931080</v>
+        <v>2931079</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,7 +5043,7 @@
         <v>2884</v>
       </c>
       <c r="N30" s="7">
-        <v>3091428</v>
+        <v>3091427</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5030,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3422F-B754-494E-8B4A-7C5FE6C1753B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B56208-F3F7-435C-8CE9-3F6A65FC9146}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5047,7 +5098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5154,13 +5205,13 @@
         <v>27928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5175,7 +5226,7 @@
         <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5184,13 +5235,13 @@
         <v>36285</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5256,13 @@
         <v>150744</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -5223,7 +5274,7 @@
         <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>91</v>
@@ -5235,13 +5286,13 @@
         <v>246507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5360,13 @@
         <v>3494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5324,13 +5375,13 @@
         <v>1109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5339,13 +5390,13 @@
         <v>4603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5411,13 @@
         <v>264244</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5375,10 +5426,10 @@
         <v>101150</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5390,13 +5441,13 @@
         <v>365394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5515,13 @@
         <v>4611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5479,13 +5530,13 @@
         <v>845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5494,13 +5545,13 @@
         <v>5456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,10 +5566,10 @@
         <v>199566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>90</v>
@@ -5530,10 +5581,10 @@
         <v>121633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5545,13 +5596,13 @@
         <v>321199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5670,13 @@
         <v>9779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5634,13 +5685,13 @@
         <v>2536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5649,13 +5700,13 @@
         <v>12315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5721,13 @@
         <v>223630</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -5685,10 +5736,10 @@
         <v>148481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5700,13 +5751,13 @@
         <v>372111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5825,13 @@
         <v>2857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5795,7 +5846,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5804,13 +5855,13 @@
         <v>2857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5876,13 @@
         <v>87432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5843,7 +5894,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5855,10 +5906,10 @@
         <v>124907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>137</v>
@@ -5929,13 +5980,13 @@
         <v>4784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5950,7 +6001,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5959,13 +6010,13 @@
         <v>6670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +6031,13 @@
         <v>184269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -5998,7 +6049,7 @@
         <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6010,13 +6061,13 @@
         <v>287111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6135,13 @@
         <v>37628</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -6099,13 +6150,13 @@
         <v>18398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -6114,13 +6165,13 @@
         <v>56027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6186,13 @@
         <v>342844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -6150,13 +6201,13 @@
         <v>240566</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="M23" s="7">
         <v>523</v>
@@ -6165,13 +6216,13 @@
         <v>583409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,10 +6293,10 @@
         <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6254,13 +6305,13 @@
         <v>4169</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6269,13 +6320,13 @@
         <v>18258</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,10 +6344,10 @@
         <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>240</v>
@@ -6305,10 +6356,10 @@
         <v>261099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>125</v>
@@ -6320,13 +6371,13 @@
         <v>703435</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6445,13 @@
         <v>105170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -6412,10 +6463,10 @@
         <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -6424,10 +6475,10 @@
         <v>142471</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>101</v>
@@ -6445,13 +6496,13 @@
         <v>1895066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>1059</v>
@@ -6463,25 +6514,25 @@
         <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="M29" s="7">
         <v>2857</v>
       </c>
       <c r="N29" s="7">
-        <v>3004073</v>
+        <v>3004072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,7 +6574,7 @@
         <v>2987</v>
       </c>
       <c r="N30" s="7">
-        <v>3146544</v>
+        <v>3146543</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6561,7 +6612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D49A19-E1EC-4816-92C2-B1A3E2A02C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFE768-B861-443C-B63E-F63E051FC95A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6578,7 +6629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6682,16 +6733,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>6841</v>
+        <v>8581</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6706,22 +6757,22 @@
         <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>6841</v>
+        <v>8581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,28 +6784,28 @@
         <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>147639</v>
+        <v>171308</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
         <v>163</v>
       </c>
       <c r="I5" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6763,16 +6814,16 @@
         <v>341</v>
       </c>
       <c r="N5" s="7">
-        <v>232596</v>
+        <v>261991</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6835,7 @@
         <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6799,7 +6850,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6814,7 +6865,7 @@
         <v>347</v>
       </c>
       <c r="N6" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6837,46 +6888,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4153</v>
+        <v>4169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>428</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4760</v>
+        <v>4756</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,28 +6939,28 @@
         <v>176</v>
       </c>
       <c r="D8" s="7">
-        <v>247792</v>
+        <v>250287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>58</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>123937</v>
+        <v>115659</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -6918,16 +6969,16 @@
         <v>320</v>
       </c>
       <c r="N8" s="7">
-        <v>371729</v>
+        <v>365947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,7 +6990,7 @@
         <v>179</v>
       </c>
       <c r="D9" s="7">
-        <v>251945</v>
+        <v>254456</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6954,7 +7005,7 @@
         <v>145</v>
       </c>
       <c r="I9" s="7">
-        <v>124544</v>
+        <v>116246</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6969,7 +7020,7 @@
         <v>324</v>
       </c>
       <c r="N9" s="7">
-        <v>376489</v>
+        <v>370703</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6992,46 +7043,46 @@
         <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>19088</v>
+        <v>18709</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2407</v>
+        <v>2247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>21495</v>
+        <v>20957</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,46 +7094,46 @@
         <v>188</v>
       </c>
       <c r="D11" s="7">
-        <v>169854</v>
+        <v>166477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>93391</v>
+        <v>88025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>431</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>309</v>
       </c>
       <c r="N11" s="7">
-        <v>263245</v>
+        <v>254501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,7 +7145,7 @@
         <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>188942</v>
+        <v>185186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7109,7 +7160,7 @@
         <v>125</v>
       </c>
       <c r="I12" s="7">
-        <v>95798</v>
+        <v>90272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7124,7 +7175,7 @@
         <v>337</v>
       </c>
       <c r="N12" s="7">
-        <v>284740</v>
+        <v>275458</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7147,46 +7198,46 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>8825</v>
+        <v>8330</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>963</v>
+        <v>902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>9788</v>
+        <v>9233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,28 +7249,28 @@
         <v>152</v>
       </c>
       <c r="D14" s="7">
-        <v>173486</v>
+        <v>169848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>133201</v>
+        <v>123443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>453</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7228,16 +7279,16 @@
         <v>330</v>
       </c>
       <c r="N14" s="7">
-        <v>306687</v>
+        <v>293291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,7 +7300,7 @@
         <v>161</v>
       </c>
       <c r="D15" s="7">
-        <v>182311</v>
+        <v>178178</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7264,7 +7315,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="7">
-        <v>134164</v>
+        <v>124345</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7279,7 +7330,7 @@
         <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>316475</v>
+        <v>302524</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7311,37 +7362,37 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7404,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7368,13 +7419,13 @@
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>9315</v>
+        <v>8143</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -7383,13 +7434,13 @@
         <v>64</v>
       </c>
       <c r="N17" s="7">
-        <v>43845</v>
+        <v>39289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -7404,7 +7455,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7419,7 +7470,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7434,7 +7485,7 @@
         <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7457,46 +7508,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>10076</v>
+        <v>9662</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2559</v>
+        <v>2377</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>12636</v>
+        <v>12039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,46 +7559,46 @@
         <v>199</v>
       </c>
       <c r="D20" s="7">
-        <v>159348</v>
+        <v>155386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>100777</v>
+        <v>94043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
       </c>
       <c r="N20" s="7">
-        <v>260123</v>
+        <v>249429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,7 +7610,7 @@
         <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>169424</v>
+        <v>165048</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7574,7 +7625,7 @@
         <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7589,7 +7640,7 @@
         <v>359</v>
       </c>
       <c r="N21" s="7">
-        <v>272759</v>
+        <v>261468</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7612,46 +7663,46 @@
         <v>39</v>
       </c>
       <c r="D22" s="7">
-        <v>42295</v>
+        <v>41876</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>16177</v>
+        <v>14591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
       </c>
       <c r="N22" s="7">
-        <v>58472</v>
+        <v>56467</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,46 +7714,46 @@
         <v>252</v>
       </c>
       <c r="D23" s="7">
-        <v>266634</v>
+        <v>266054</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="H23" s="7">
         <v>269</v>
       </c>
       <c r="I23" s="7">
-        <v>305008</v>
+        <v>385693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>521</v>
       </c>
       <c r="N23" s="7">
-        <v>571642</v>
+        <v>651747</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,7 +7765,7 @@
         <v>291</v>
       </c>
       <c r="D24" s="7">
-        <v>308929</v>
+        <v>307930</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7729,7 +7780,7 @@
         <v>287</v>
       </c>
       <c r="I24" s="7">
-        <v>321185</v>
+        <v>400284</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7744,7 +7795,7 @@
         <v>578</v>
       </c>
       <c r="N24" s="7">
-        <v>630114</v>
+        <v>708214</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7767,46 +7818,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>7492</v>
+        <v>6407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>4036</v>
+        <v>3342</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>498</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>11528</v>
+        <v>9750</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,46 +7869,46 @@
         <v>296</v>
       </c>
       <c r="D26" s="7">
-        <v>319655</v>
+        <v>271130</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>133</v>
       </c>
       <c r="I26" s="7">
-        <v>118274</v>
+        <v>96483</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>505</v>
       </c>
       <c r="M26" s="7">
         <v>429</v>
       </c>
       <c r="N26" s="7">
-        <v>437930</v>
+        <v>367612</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,7 +7920,7 @@
         <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>327147</v>
+        <v>277537</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7884,7 +7935,7 @@
         <v>137</v>
       </c>
       <c r="I27" s="7">
-        <v>122310</v>
+        <v>99825</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7899,7 +7950,7 @@
         <v>440</v>
       </c>
       <c r="N27" s="7">
-        <v>449458</v>
+        <v>377362</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7922,46 +7973,46 @@
         <v>100</v>
       </c>
       <c r="D28" s="7">
-        <v>98770</v>
+        <v>97735</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>234</v>
+        <v>508</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
       </c>
       <c r="I28" s="7">
-        <v>27231</v>
+        <v>24487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>499</v>
+        <v>403</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="M28" s="7">
         <v>134</v>
       </c>
       <c r="N28" s="7">
-        <v>126001</v>
+        <v>122222</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,46 +8024,46 @@
         <v>1487</v>
       </c>
       <c r="D29" s="7">
-        <v>1518938</v>
+        <v>1481636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>517</v>
       </c>
       <c r="H29" s="7">
         <v>1170</v>
       </c>
       <c r="I29" s="7">
-        <v>968860</v>
+        <v>1002172</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>506</v>
+        <v>410</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="M29" s="7">
         <v>2657</v>
       </c>
       <c r="N29" s="7">
-        <v>2487797</v>
+        <v>2483807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,7 +8075,7 @@
         <v>1587</v>
       </c>
       <c r="D30" s="7">
-        <v>1617708</v>
+        <v>1579371</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8039,7 +8090,7 @@
         <v>1204</v>
       </c>
       <c r="I30" s="7">
-        <v>996091</v>
+        <v>1026659</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8054,7 +8105,7 @@
         <v>2791</v>
       </c>
       <c r="N30" s="7">
-        <v>2613798</v>
+        <v>2606029</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
